--- a/Wifi bootloader prelim CPD 10.xlsx
+++ b/Wifi bootloader prelim CPD 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1260FF21-EAEE-4BFA-8038-17041D08D44A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C36C91-226E-472C-8855-1371A03D761D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
   <si>
     <t>SOF1</t>
   </si>
@@ -407,13 +407,91 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Request from Software  to go into paramater mode for sending parameters to device</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Sending Data from Software to device</t>
+  </si>
+  <si>
+    <t>Sending Data from device to Software</t>
+  </si>
+  <si>
+    <t>FileNumber1</t>
+  </si>
+  <si>
+    <t>FileNumber2</t>
+  </si>
+  <si>
+    <t>FileTotal1</t>
+  </si>
+  <si>
+    <t>FileTotal2</t>
+  </si>
+  <si>
+    <t>FileSize1_00</t>
+  </si>
+  <si>
+    <t>FileSize1_01</t>
+  </si>
+  <si>
+    <t>FileSize1_02</t>
+  </si>
+  <si>
+    <t>FileSize1_03</t>
+  </si>
+  <si>
+    <t>FileSize2_00</t>
+  </si>
+  <si>
+    <t>FileSize2_01</t>
+  </si>
+  <si>
+    <t>FileSize2_02</t>
+  </si>
+  <si>
+    <t>FileSize2_03</t>
+  </si>
+  <si>
+    <t>FileSize3_00</t>
+  </si>
+  <si>
+    <t>FileSize3_01</t>
+  </si>
+  <si>
+    <t>FileSize3_02</t>
+  </si>
+  <si>
+    <t>FileSize3_03</t>
+  </si>
+  <si>
+    <t>FileSize4_00</t>
+  </si>
+  <si>
+    <t>FileSize4_01</t>
+  </si>
+  <si>
+    <t>FileSize4_02</t>
+  </si>
+  <si>
+    <t>FileSize4_03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +562,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +794,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -784,6 +879,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA79" sqref="AA79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,10 +1246,8 @@
     <col min="7" max="7" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10" style="6" bestFit="1" customWidth="1"/>
@@ -1154,22 +1276,22 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -3222,10 +3344,10 @@
         <v>8</v>
       </c>
       <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -3256,7 +3378,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -3289,7 +3411,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>31</v>
@@ -3389,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>31</v>
@@ -3432,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
@@ -3456,7 +3578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>76</v>
       </c>
@@ -3471,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>37</v>
@@ -3489,7 +3611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f>COUNTA(C49:I49)</f>
         <v>7</v>
@@ -3519,7 +3641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f>COUNTA(C50:I50)</f>
         <v>0</v>
@@ -3548,6 +3670,887 @@
       <c r="J52" s="4" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+    </row>
+    <row r="55" spans="1:36" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20">
+        <v>1</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="20">
+        <v>3</v>
+      </c>
+      <c r="G55" s="20">
+        <v>4</v>
+      </c>
+      <c r="H55" s="20">
+        <v>5</v>
+      </c>
+      <c r="I55" s="20">
+        <v>6</v>
+      </c>
+      <c r="J55" s="33">
+        <v>7</v>
+      </c>
+      <c r="K55" s="33">
+        <v>8</v>
+      </c>
+      <c r="L55" s="33">
+        <v>9</v>
+      </c>
+      <c r="M55" s="33">
+        <v>10</v>
+      </c>
+      <c r="N55" s="33">
+        <v>11</v>
+      </c>
+      <c r="O55" s="33">
+        <v>12</v>
+      </c>
+      <c r="P55" s="33">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>14</v>
+      </c>
+      <c r="R55" s="33">
+        <v>15</v>
+      </c>
+      <c r="S55" s="33">
+        <v>16</v>
+      </c>
+      <c r="T55" s="33">
+        <v>17</v>
+      </c>
+      <c r="U55" s="33">
+        <v>18</v>
+      </c>
+      <c r="V55" s="33">
+        <v>19</v>
+      </c>
+      <c r="W55" s="33">
+        <v>20</v>
+      </c>
+      <c r="X55" s="33">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="33">
+        <v>22</v>
+      </c>
+      <c r="Z55" s="33">
+        <v>23</v>
+      </c>
+      <c r="AA55" s="33">
+        <v>24</v>
+      </c>
+      <c r="AC55" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD55" s="33">
+        <v>520</v>
+      </c>
+      <c r="AE55" s="33">
+        <v>521</v>
+      </c>
+      <c r="AF55" s="33">
+        <v>522</v>
+      </c>
+      <c r="AG55" s="33">
+        <v>523</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>524</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>525</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="2">
+        <f>COUNTA(C57:I57)</f>
+        <v>7</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2">
+        <v>522</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="W58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="X58" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG58" s="29"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="2">
+        <v>526</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T59" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y59" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z59" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA59" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB59" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC59" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD59" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF59" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2">
+        <v>12</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG60" s="29"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2">
+        <v>11</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG61" s="29"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG62" s="29"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="29"/>
+      <c r="AG63" s="29"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG64" s="29"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2">
+        <f>COUNTA(C65:I65)</f>
+        <v>7</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG65" s="29"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" ref="B66" si="7">COUNTA(C66:I66)</f>
+        <v>7</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG66" s="29"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="2">
+        <v>522</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S67" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T67" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U67" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V67" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W67" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="X67" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y67" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z67" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA67" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC67" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD67" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG67" s="30"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="2">
+        <f>COUNTA(C68:P68)</f>
+        <v>13</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="4"/>
+      <c r="AG68" s="29"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" ref="B69" si="8">COUNTA(C69:I69)</f>
+        <v>7</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J69" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2">
+        <f>COUNTA(C68:I68)</f>
+        <v>7</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <f>COUNTA(C70:I70)</f>
+        <v>7</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Wifi bootloader prelim CPD 10.xlsx
+++ b/Wifi bootloader prelim CPD 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C36C91-226E-472C-8855-1371A03D761D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31F539-E38C-4C7E-8D06-52E7AB23E6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="167">
   <si>
     <t>SOF1</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Sending Data from Software to device</t>
   </si>
   <si>
-    <t>Sending Data from device to Software</t>
-  </si>
-  <si>
     <t>FileNumber1</t>
   </si>
   <si>
@@ -485,13 +482,64 @@
   </si>
   <si>
     <t>FileSize4_03</t>
+  </si>
+  <si>
+    <t>TotalFiles1</t>
+  </si>
+  <si>
+    <t>TotalFiles2</t>
+  </si>
+  <si>
+    <t>AudioInfo1</t>
+  </si>
+  <si>
+    <t>AudioInfo2</t>
+  </si>
+  <si>
+    <t>AudioInfo3</t>
+  </si>
+  <si>
+    <t>AudioInfo4</t>
+  </si>
+  <si>
+    <t>AudioInfo5</t>
+  </si>
+  <si>
+    <t>AudioInfo6</t>
+  </si>
+  <si>
+    <t>AudioInfo7</t>
+  </si>
+  <si>
+    <t>AudioInfo8</t>
+  </si>
+  <si>
+    <t>AudioInfo9</t>
+  </si>
+  <si>
+    <t>AudioInfo10</t>
+  </si>
+  <si>
+    <t>AudioInfo11</t>
+  </si>
+  <si>
+    <t>AudioInfo12</t>
+  </si>
+  <si>
+    <t>AudioInfo13</t>
+  </si>
+  <si>
+    <t>AudioInfo14</t>
+  </si>
+  <si>
+    <t>AudioInfo512</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,15 +616,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -794,7 +833,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -881,9 +920,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,9 +941,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1231,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA79" sqref="AA79"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,22 +1314,22 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -3672,14 +3710,14 @@
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3825,7 +3863,7 @@
       </c>
     </row>
     <row r="56" spans="1:36" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="41" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="20"/>
@@ -3912,59 +3950,59 @@
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G58" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="I58" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="J58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="K58" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="L58" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="M58" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="N58" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="O58" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q58" s="6" t="s">
+      <c r="R58" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="S58" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="S58" s="6" t="s">
+      <c r="T58" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T58" s="6" t="s">
+      <c r="U58" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="6" t="s">
+      <c r="V58" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="V58" s="6" t="s">
+      <c r="W58" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="W58" s="6" t="s">
+      <c r="X58" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="X58" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
@@ -4011,50 +4049,62 @@
       <c r="J59" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K59" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M59" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="N59" s="42" t="s">
+        <v>151</v>
+      </c>
       <c r="O59" s="19" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="Q59" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S59" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="T59" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="U59" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="V59" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="W59" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="X59" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y59" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA59" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB59" s="21" t="s">
-        <v>66</v>
+        <v>154</v>
+      </c>
+      <c r="R59" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="S59" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="T59" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="U59" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="V59" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="W59" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X59" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y59" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z59" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA59" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB59" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AC59" s="21" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="AD59" s="21" t="s">
         <v>4</v>
@@ -4094,11 +4144,11 @@
       <c r="I60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="44" t="s">
+      <c r="J60" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="K60" s="44" t="s">
-        <v>132</v>
       </c>
       <c r="L60" s="19" t="s">
         <v>4</v>
@@ -4139,11 +4189,11 @@
       <c r="H61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="J61" s="44" t="s">
-        <v>132</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>4</v>
@@ -4178,11 +4228,11 @@
       <c r="F62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="44" t="s">
+      <c r="G62" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>132</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4200,357 +4250,17 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
       <c r="J63" s="30"/>
       <c r="K63" s="29"/>
       <c r="AG63" s="29"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG64" s="29"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="2">
-        <f>COUNTA(C65:I65)</f>
-        <v>7</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG65" s="29"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" ref="B66" si="7">COUNTA(C66:I66)</f>
-        <v>7</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG66" s="29"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="2">
-        <v>522</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P67" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q67" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="R67" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S67" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="T67" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="U67" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="V67" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="W67" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="X67" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y67" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z67" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA67" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB67" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC67" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD67" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF67" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG67" s="30"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="2">
-        <f>COUNTA(C68:P68)</f>
-        <v>13</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K68" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="4"/>
-      <c r="AG68" s="29"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" ref="B69" si="8">COUNTA(C69:I69)</f>
-        <v>7</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="2">
-        <f>COUNTA(C68:I68)</f>
-        <v>7</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B72" s="2">
-        <f>COUNTA(C70:I70)</f>
-        <v>7</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Wifi bootloader prelim CPD 10.xlsx
+++ b/Wifi bootloader prelim CPD 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31F539-E38C-4C7E-8D06-52E7AB23E6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD70DF-BBF0-44C3-B1EC-1E48D40AAFA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>31</v>
@@ -4178,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
@@ -4223,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>37</v>
